--- a/Templates/fecundity/5_template_fecundity.xlsx
+++ b/Templates/fecundity/5_template_fecundity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\fecundity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\fecundity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0670059-0D50-4AD8-BBD6-1920B3BB8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A524FFF-8BEA-4D96-9E3C-E9B0A1CDFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="185">
   <si>
     <t>Table_name</t>
   </si>
@@ -582,6 +582,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>date_of_collection_final</t>
+  </si>
 </sst>
 </file>
 
@@ -986,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C0933D-E5FC-4A10-B3D0-28C675A6D7ED}">
   <dimension ref="A1:BT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1144,7 @@
         <v>46</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>49</v>
@@ -1316,15 +1319,15 @@
   <dimension ref="A1:Z962"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" customWidth="1"/>
     <col min="4" max="4" width="227.28515625" customWidth="1"/>
     <col min="5" max="26" width="9.140625" customWidth="1"/>
   </cols>
@@ -1982,7 +1985,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>48</v>
